--- a/src/main/resources/template/BC_QUALITY_DOCUMENT.xlsx
+++ b/src/main/resources/template/BC_QUALITY_DOCUMENT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sangvn1\openkm\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94435A18-3CBE-40E3-8627-B0B3BCD23E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA557D3-7043-4E55-BDC3-79F5922A4C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +243,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Số:         /${orgCode}</t>
+      <t>Số:         /${orgCode}-BC</t>
     </r>
   </si>
 </sst>
@@ -547,6 +547,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -554,30 +578,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1093,20 +1093,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="40"/>
@@ -1116,14 +1116,14 @@
       <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1134,24 +1134,24 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="8" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -1217,14 +1217,14 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1235,16 +1235,16 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="22" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -1306,16 +1306,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A22:G22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/template/BC_QUALITY_DOCUMENT.xlsx
+++ b/src/main/resources/template/BC_QUALITY_DOCUMENT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sangvn1\openkm\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA557D3-7043-4E55-BDC3-79F5922A4C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94435A18-3CBE-40E3-8627-B0B3BCD23E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +243,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Số:         /${orgCode}-BC</t>
+      <t>Số:         /${orgCode}</t>
     </r>
   </si>
 </sst>
@@ -547,6 +547,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -556,9 +568,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -569,15 +578,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1093,20 +1093,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="40"/>
@@ -1116,14 +1116,14 @@
       <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1134,24 +1134,24 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -1217,14 +1217,14 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1235,16 +1235,16 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="22" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -1306,16 +1306,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/template/BC_QUALITY_DOCUMENT.xlsx
+++ b/src/main/resources/template/BC_QUALITY_DOCUMENT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sangvn1\openkm\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sangvn1\viettel_sc\openkm_vtx\kms\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94435A18-3CBE-40E3-8627-B0B3BCD23E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46292228-CCE8-48F7-BB07-8F3E95D25B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Số:         /${orgCode}</t>
+      <t>Số:         /${orgCode}-BC</t>
     </r>
   </si>
 </sst>
@@ -547,6 +547,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -554,30 +578,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,34 +1079,34 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="40"/>
@@ -1115,17 +1115,17 @@
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1133,27 +1133,27 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="8" spans="1:6" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+    </row>
+    <row r="8" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>6</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>8</v>
       </c>
@@ -1216,17 +1216,17 @@
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:6" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1234,19 +1234,19 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:6" ht="86.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="22" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+    </row>
+    <row r="22" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -1255,7 +1255,7 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1264,7 +1264,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1275,7 +1275,7 @@
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -1284,7 +1284,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="27"/>
@@ -1295,7 +1295,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="33"/>
@@ -1306,16 +1306,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A22:G22"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
